--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38F1FD5-909E-0E47-8E24-1C73AEE0C8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FAFDB5-E848-E642-8981-6676F4AB37D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,11 +507,11 @@
         <v>8</v>
       </c>
       <c r="O1">
-        <v>1500</v>
+        <v>1633</v>
       </c>
       <c r="P1">
         <f>SUM(O1:O12)</f>
-        <v>2135</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -560,14 +560,14 @@
       </c>
       <c r="H3">
         <f>-P1</f>
-        <v>-2135</v>
+        <v>-2268</v>
       </c>
       <c r="I3">
         <v>-3000</v>
       </c>
       <c r="J3">
         <f>SUM(G3:I3)</f>
-        <v>2065</v>
+        <v>1932</v>
       </c>
       <c r="N3" t="s">
         <v>10</v>
@@ -640,11 +640,11 @@
       </c>
       <c r="J6">
         <f>J3*(1/3)</f>
-        <v>688.33333333333326</v>
+        <v>644</v>
       </c>
       <c r="K6">
         <f>J3*(2/3)</f>
-        <v>1376.6666666666665</v>
+        <v>1288</v>
       </c>
       <c r="L6" t="s">
         <v>16</v>
@@ -663,11 +663,11 @@
       </c>
       <c r="J7">
         <f>J6/4</f>
-        <v>172.08333333333331</v>
+        <v>161</v>
       </c>
       <c r="K7">
         <f>K6/4</f>
-        <v>344.16666666666663</v>
+        <v>322</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -718,11 +718,11 @@
       </c>
       <c r="J10">
         <f>J7+J9</f>
-        <v>422.08333333333331</v>
+        <v>411</v>
       </c>
       <c r="K10">
         <f>K7+K9</f>
-        <v>844.16666666666663</v>
+        <v>822</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FAFDB5-E848-E642-8981-6676F4AB37D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54890DD-94BC-484D-AF41-4B0DDD19F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Payment</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Total weekly personal money</t>
+  </si>
+  <si>
+    <t>&lt;- Bethany</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +503,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
       <c r="M1" t="s">
         <v>7</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54890DD-94BC-484D-AF41-4B0DDD19F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20781A11-AB32-CA45-BA94-85E7F5B5FC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Payment</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>&lt;- Bethany</t>
+  </si>
+  <si>
+    <t>Total savings</t>
+  </si>
+  <si>
+    <t>Cricut</t>
+  </si>
+  <si>
+    <t>Dumpster</t>
+  </si>
+  <si>
+    <t>Treadmill</t>
+  </si>
+  <si>
+    <t>(should be 411, but she got a small bonus)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +492,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,8 +543,8 @@
         <v>600</v>
       </c>
       <c r="E2">
-        <f>SUM(B2:D2 )</f>
-        <v>600</v>
+        <f>SUM(C2:D2 )</f>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -555,11 +570,14 @@
         <v>350</v>
       </c>
       <c r="C3">
-        <v>-250</v>
+        <v>250</v>
       </c>
       <c r="E3">
-        <f>SUM(B3:D3, E2)</f>
-        <v>700</v>
+        <f>SUM(C3:D3,E2)</f>
+        <v>250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
       </c>
       <c r="G3">
         <v>7200</v>
@@ -590,11 +608,15 @@
         <v>350</v>
       </c>
       <c r="C4">
-        <v>-250</v>
+        <v>250</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="0">SUM(B4:D4, E3)</f>
-        <v>800</v>
+        <f t="shared" ref="E4:E12" si="0">SUM(C4:D4,E3)</f>
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <f>SUM(C2:C421)</f>
+        <v>1500</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
@@ -611,11 +633,11 @@
         <v>350</v>
       </c>
       <c r="C5">
-        <v>-250</v>
+        <v>250</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -638,11 +660,11 @@
         <v>422</v>
       </c>
       <c r="C6">
-        <v>-250</v>
+        <v>250</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>1000</v>
       </c>
       <c r="J6">
         <f>J3*(1/3)</f>
@@ -663,9 +685,18 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45508</v>
+      </c>
+      <c r="D7">
+        <v>-142</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>858</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
       </c>
       <c r="J7">
         <f>J6/4</f>
@@ -680,9 +711,18 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45508</v>
+      </c>
+      <c r="D8">
+        <v>-110</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>748</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
       </c>
       <c r="I8">
         <f>I3*-1</f>
@@ -701,9 +741,18 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45508</v>
+      </c>
+      <c r="D9">
+        <v>-63</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>685</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
       <c r="J9">
         <f>J8/4</f>
@@ -718,9 +767,18 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B10">
+        <v>425</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>935</v>
       </c>
       <c r="J10">
         <f>J7+J9</f>
@@ -735,15 +793,27 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B11">
+        <v>425</v>
+      </c>
+      <c r="C11">
+        <v>250</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>1185</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1072</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20781A11-AB32-CA45-BA94-85E7F5B5FC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F80E0-9425-7844-8D23-2381CE719DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,7 +616,7 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
@@ -811,9 +811,18 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B12">
+        <v>411</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>1185</v>
+        <v>1435</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F80E0-9425-7844-8D23-2381CE719DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957DA65-D908-344F-80D6-2F0B3EE0F1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Payment</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>weekly savings</t>
-  </si>
-  <si>
-    <t>Total weekly personal money</t>
   </si>
   <si>
     <t>&lt;- Bethany</t>
@@ -489,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>7</v>
@@ -577,7 +574,7 @@
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>7200</v>
@@ -611,12 +608,12 @@
         <v>250</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="0">SUM(C4:D4,E3)</f>
+        <f t="shared" ref="E4:E18" si="0">SUM(C4:D4,E3)</f>
         <v>500</v>
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>1750</v>
+        <v>3250</v>
       </c>
       <c r="N4" t="s">
         <v>11</v>
@@ -696,7 +693,7 @@
         <v>858</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7">
         <f>J6/4</f>
@@ -722,7 +719,7 @@
         <v>748</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8">
         <f>I3*-1</f>
@@ -752,7 +749,7 @@
         <v>685</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9">
         <f>J8/4</f>
@@ -780,17 +777,6 @@
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
-      <c r="J10">
-        <f>J7+J9</f>
-        <v>411</v>
-      </c>
-      <c r="K10">
-        <f>K7+K9</f>
-        <v>822</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -807,7 +793,7 @@
         <v>1185</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -823,6 +809,96 @@
       <c r="E12">
         <f t="shared" si="0"/>
         <v>1435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B13">
+        <v>411</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B14">
+        <v>411</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B15">
+        <v>411</v>
+      </c>
+      <c r="C15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B16">
+        <v>411</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B17">
+        <v>411</v>
+      </c>
+      <c r="C17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B18">
+        <v>411</v>
+      </c>
+      <c r="C18">
+        <v>250</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2935</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3957DA65-D908-344F-80D6-2F0B3EE0F1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC468E3A-69C1-464C-97D2-D8B657AEA3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
-  <si>
-    <t>Payment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Savings</t>
   </si>
@@ -114,6 +111,18 @@
   </si>
   <si>
     <t>(should be 411, but she got a small bonus)</t>
+  </si>
+  <si>
+    <t>Daily pay</t>
+  </si>
+  <si>
+    <t>weekly savings account transfer</t>
+  </si>
+  <si>
+    <t>Quarterly bonus</t>
+  </si>
+  <si>
+    <t>Gross Payment</t>
   </si>
 </sst>
 </file>
@@ -486,14 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" customWidth="1"/>
     <col min="12" max="12" width="24.5" customWidth="1"/>
     <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
@@ -501,35 +512,35 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
         <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
       </c>
       <c r="O1">
         <v>1633</v>
       </c>
       <c r="P1">
         <f>SUM(O1:O12)</f>
-        <v>2268</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -544,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2">
         <v>75</v>
@@ -574,24 +585,24 @@
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>7200</v>
       </c>
       <c r="H3">
         <f>-P1</f>
-        <v>-2268</v>
+        <v>-2368</v>
       </c>
       <c r="I3">
         <v>-3000</v>
       </c>
       <c r="J3">
         <f>SUM(G3:I3)</f>
-        <v>1932</v>
+        <v>1832</v>
       </c>
       <c r="N3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3">
         <v>60</v>
@@ -613,10 +624,10 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>3250</v>
+        <v>6883</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>30</v>
@@ -637,13 +648,13 @@
         <v>750</v>
       </c>
       <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5">
         <v>170</v>
@@ -665,20 +676,20 @@
       </c>
       <c r="J6">
         <f>J3*(1/3)</f>
-        <v>644</v>
+        <v>610.66666666666663</v>
       </c>
       <c r="K6">
         <f>J3*(2/3)</f>
-        <v>1288</v>
+        <v>1221.3333333333333</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -693,18 +704,18 @@
         <v>858</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7">
         <f>J6/4</f>
-        <v>161</v>
+        <v>152.66666666666666</v>
       </c>
       <c r="K7">
-        <f>K6/4</f>
-        <v>322</v>
+        <f>K6/4-K10</f>
+        <v>155.33333333333331</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -719,7 +730,7 @@
         <v>748</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8">
         <f>I3*-1</f>
@@ -734,7 +745,7 @@
         <v>2000</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -749,7 +760,7 @@
         <v>685</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9">
         <f>J8/4</f>
@@ -760,7 +771,7 @@
         <v>500</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -777,6 +788,12 @@
         <f t="shared" si="0"/>
         <v>935</v>
       </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -793,6 +810,17 @@
         <v>1185</v>
       </c>
       <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11">
+        <f>J7/7</f>
+        <v>21.809523809523807</v>
+      </c>
+      <c r="K11">
+        <f>K7/7</f>
+        <v>22.190476190476186</v>
+      </c>
+      <c r="L11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -871,7 +899,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45562</v>
       </c>
@@ -886,7 +914,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45569</v>
       </c>
@@ -899,6 +927,54 @@
       <c r="E18">
         <f t="shared" si="0"/>
         <v>2935</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B19">
+        <v>411</v>
+      </c>
+      <c r="C19">
+        <v>250</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="1">SUM(C19:D19,E18)</f>
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B20">
+        <v>4133</v>
+      </c>
+      <c r="C20">
+        <v>3133</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E21" si="2">SUM(C20:D20,E19)</f>
+        <v>6318</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B21">
+        <v>411</v>
+      </c>
+      <c r="C21">
+        <v>250</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>6568</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC468E3A-69C1-464C-97D2-D8B657AEA3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558547A-2D00-9842-B15E-ACE76B15035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>6883</v>
+        <v>7133</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
@@ -975,6 +975,21 @@
       <c r="E21">
         <f t="shared" si="2"/>
         <v>6568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B22">
+        <v>411</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22" si="3">SUM(C22:D22,E21)</f>
+        <v>6818</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558547A-2D00-9842-B15E-ACE76B15035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC03BB1A-604B-2549-BB70-7026F98FD1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>7133</v>
+        <v>7383</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
@@ -988,8 +988,23 @@
         <v>250</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22" si="3">SUM(C22:D22,E21)</f>
+        <f t="shared" ref="E22:E23" si="3">SUM(C22:D22,E21)</f>
         <v>6818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B23">
+        <v>411</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>7068</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC03BB1A-604B-2549-BB70-7026F98FD1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40E8F0E-B4CD-C641-9CB3-CECE27144F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>7383</v>
+        <v>8133</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
@@ -988,7 +988,7 @@
         <v>250</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E23" si="3">SUM(C22:D22,E21)</f>
+        <f t="shared" ref="E22:E24" si="3">SUM(C22:D22,E21)</f>
         <v>6818</v>
       </c>
     </row>
@@ -1005,6 +1005,51 @@
       <c r="E23">
         <f t="shared" si="3"/>
         <v>7068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B24">
+        <v>411</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>7318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B25">
+        <v>411</v>
+      </c>
+      <c r="C25">
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E26" si="4">SUM(C25:D25,E24)</f>
+        <v>7568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B26">
+        <v>411</v>
+      </c>
+      <c r="C26">
+        <v>250</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>7818</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40E8F0E-B4CD-C641-9CB3-CECE27144F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D3D523-38D7-B642-B9C4-95E7854C053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>8133</v>
+        <v>8383</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
@@ -1051,6 +1051,24 @@
         <f t="shared" si="4"/>
         <v>7818</v>
       </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B27">
+        <v>411</v>
+      </c>
+      <c r="C27">
+        <v>250</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:E28" si="5">SUM(C27:D27,E26)</f>
+        <v>8068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D3D523-38D7-B642-B9C4-95E7854C053D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC457953-0ED4-8342-8C8F-028673FE562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>8383</v>
+        <v>10133</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
@@ -1068,7 +1068,109 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B28">
+        <v>411</v>
+      </c>
+      <c r="C28">
+        <v>250</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>8318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B29">
+        <v>411</v>
+      </c>
+      <c r="C29">
+        <v>250</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:E30" si="6">SUM(C29:D29,E28)</f>
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B30">
+        <v>411</v>
+      </c>
+      <c r="C30">
+        <v>250</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B31">
+        <v>411</v>
+      </c>
+      <c r="C31">
+        <v>250</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E33" si="7">SUM(C31:D31,E30)</f>
+        <v>9068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B32">
+        <v>411</v>
+      </c>
+      <c r="C32">
+        <v>250</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>9318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B33">
+        <v>411</v>
+      </c>
+      <c r="C33">
+        <v>250</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="7"/>
+        <v>9568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B34">
+        <v>425</v>
+      </c>
+      <c r="C34">
+        <v>250</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="8">SUM(C34:D34,E33)</f>
+        <v>9818</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasmansfield/repos/household-money/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC457953-0ED4-8342-8C8F-028673FE562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDCB7B4-D960-834E-A982-1C0580896E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{180D1295-64EC-7148-8EDB-A24A3B608AD2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Savings</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Gross Payment</t>
+  </si>
+  <si>
+    <t>Heating excess for Dec and January</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47573121-3BA1-8143-ACBD-E263B8F66547}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +627,7 @@
       </c>
       <c r="F4">
         <f>SUM(C2:C421)</f>
-        <v>10133</v>
+        <v>10819.5</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
@@ -1142,7 +1145,7 @@
         <v>9318</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45667</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>9568</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45674</v>
       </c>
@@ -1168,9 +1171,87 @@
         <v>250</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34" si="8">SUM(C34:D34,E33)</f>
+        <f t="shared" ref="E34:E35" si="8">SUM(C34:D34,E33)</f>
         <v>9818</v>
       </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B35">
+        <v>425</v>
+      </c>
+      <c r="C35">
+        <v>250</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="8"/>
+        <v>10068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B36">
+        <v>425</v>
+      </c>
+      <c r="C36">
+        <v>250</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E40" si="9">SUM(C36:D36,E35)</f>
+        <v>10318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B37">
+        <v>425</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>10568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B38">
+        <v>425</v>
+      </c>
+      <c r="C38">
+        <v>250</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="9"/>
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>45705</v>
+      </c>
+      <c r="C39">
+        <v>-313.5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>10504.5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
